--- a/remap_ville_plugin/CH_ReMaP/archetypes/SURB_2040_DGT/use_types/USE_TYPE_PROPERTIES.xlsx
+++ b/remap_ville_plugin/CH_ReMaP/archetypes/SURB_2040_DGT/use_types/USE_TYPE_PROPERTIES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoraiopoulos\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\SURB_2040_DCL\use_types\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\SURB_2040_DGT\use_types\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E8B28B-32B1-4688-8100-4D611346C4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94266581-D761-41A6-BBEB-1E0DA84637D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="3135" windowWidth="20865" windowHeight="12615" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTERNAL_LOADS" sheetId="7" r:id="rId1"/>
@@ -1038,28 +1038,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
-    <col min="12" max="13" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="11.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -2003,24 +2003,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -2046,12 +2046,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4">
         <v>21</v>
@@ -2073,12 +2073,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4">
         <v>21</v>
@@ -2100,12 +2100,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4">
         <v>21</v>
@@ -2127,12 +2127,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4">
         <v>21</v>
@@ -2154,12 +2154,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4">
         <v>21</v>
@@ -2181,12 +2181,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4">
         <v>20</v>
@@ -2208,12 +2208,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4">
         <v>20</v>
@@ -2235,12 +2235,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4">
         <v>21</v>
@@ -2262,12 +2262,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4">
         <v>18</v>
@@ -2289,12 +2289,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4">
         <v>21</v>
@@ -2316,7 +2316,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -2343,12 +2343,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4">
         <v>18</v>
@@ -2370,12 +2370,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4">
         <v>24</v>
@@ -2397,12 +2397,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4">
         <v>18</v>
@@ -2423,12 +2423,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="4">
         <v>18</v>
@@ -2449,7 +2449,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -2475,12 +2475,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4">
         <v>21</v>
@@ -2502,12 +2502,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" s="4">
         <v>21</v>
@@ -2529,12 +2529,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="4">
         <v>21</v>
@@ -2556,12 +2556,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4">
         <v>21</v>
@@ -2593,21 +2593,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -2777,10 +2762,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2802,19 +2812,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/remap_ville_plugin/CH_ReMaP/archetypes/SURB_2040_DGT/use_types/USE_TYPE_PROPERTIES.xlsx
+++ b/remap_ville_plugin/CH_ReMaP/archetypes/SURB_2040_DGT/use_types/USE_TYPE_PROPERTIES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\SURB_2040_DGT\use_types\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A95A9E3-0A52-4C74-956B-6D4C8C322EFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23155A5-0A35-4175-B8C9-85CB994779C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26445" yWindow="2955" windowWidth="21600" windowHeight="10425" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTERNAL_LOADS" sheetId="1" r:id="rId1"/>
@@ -58,10 +58,10 @@
     <t>Ed_Wm2</t>
   </si>
   <si>
-    <t>Vww_lpdp</t>
-  </si>
-  <si>
-    <t>Vw_lpdp</t>
+    <t>Vww_ldp</t>
+  </si>
+  <si>
+    <t>Vw_ldp</t>
   </si>
   <si>
     <t>Qcre_Wm2</t>
@@ -552,7 +552,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -569,8 +569,8 @@
     <col min="10" max="10" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7265625" style="1" customWidth="1"/>
     <col min="12" max="13" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1796875" style="1"/>
+    <col min="14" max="15" width="9.1796875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -1518,7 +1518,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1531,8 +1531,8 @@
     <col min="6" max="6" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="9" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -1578,8 +1578,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="7">
-        <f>30/3.6</f>
-        <v>8.3333333333333339</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G2" s="7">
         <v>30</v>

--- a/remap_ville_plugin/CH_ReMaP/archetypes/SURB_2040_DGT/use_types/USE_TYPE_PROPERTIES.xlsx
+++ b/remap_ville_plugin/CH_ReMaP/archetypes/SURB_2040_DGT/use_types/USE_TYPE_PROPERTIES.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\SURB_2040_DGT\use_types\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\03-Research\01-Projects\30_VILLE\CEA_Projects\_CaseStudies\Echallens\CEA_simulations\2060_DGT_RCP85\inputs\technology\archetypes\use_types\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23155A5-0A35-4175-B8C9-85CB994779C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3406187D-455E-44FA-BCD8-395DA3499D2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18915" yWindow="3600" windowWidth="14400" windowHeight="7230" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTERNAL_LOADS" sheetId="1" r:id="rId1"/>
@@ -1518,7 +1518,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1566,7 +1566,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="4">
         <v>21</v>
@@ -1592,7 +1592,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4">
         <v>21</v>
@@ -1619,7 +1619,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4">
         <v>21</v>
@@ -1646,7 +1646,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4">
         <v>21</v>
@@ -1673,7 +1673,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4">
         <v>21</v>
@@ -1700,7 +1700,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4">
         <v>20</v>
@@ -1727,7 +1727,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4">
         <v>20</v>
@@ -1754,7 +1754,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4">
         <v>21</v>
@@ -1781,7 +1781,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4">
         <v>18</v>
@@ -1808,7 +1808,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4">
         <v>21</v>
@@ -1862,7 +1862,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4">
         <v>18</v>
@@ -1889,7 +1889,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="4">
         <v>24</v>
@@ -1916,7 +1916,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4">
         <v>18</v>
@@ -1942,7 +1942,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4">
         <v>18</v>
@@ -1994,7 +1994,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4">
         <v>21</v>
@@ -2021,7 +2021,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="4">
         <v>21</v>
@@ -2048,7 +2048,7 @@
         <v>32</v>
       </c>
       <c r="B20" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4">
         <v>21</v>
@@ -2075,7 +2075,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="4">
         <v>21</v>
